--- a/www.eia.gov/electricity/monthly/xls/table_6_01.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
-    <t>Table 6.1. Electric Generating Summer Capacity Changes (MW), September 2016 to October 2016</t>
+    <t>Table 6.1. Electric Generating Summer Capacity Changes (MW), October 2016 to November 2016</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>As of End of September 2016</t>
-  </si>
-  <si>
-    <t>Activity During October 2016 as Reported to EIA</t>
-  </si>
-  <si>
     <t>As of End of October 2016</t>
+  </si>
+  <si>
+    <t>Activity During November 2016 as Reported to EIA</t>
+  </si>
+  <si>
+    <t>As of End of November 2016</t>
   </si>
   <si>
     <t>Net Change in Capacity - Current Month and Prior Periods</t>
@@ -1421,31 +1421,31 @@
         <v>25</v>
       </c>
       <c r="C5" s="12">
-        <v>74823.600000000006</v>
+        <v>75427.100000000006</v>
       </c>
       <c r="D5" s="13">
-        <v>603.5</v>
+        <v>698.8</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <v>75427.100000000006</v>
+        <v>76125.899999999994</v>
       </c>
       <c r="G5" s="13">
-        <v>603.5</v>
+        <v>698.8</v>
       </c>
       <c r="H5" s="13">
-        <v>2853.7</v>
+        <v>3552.5</v>
       </c>
       <c r="I5" s="13">
-        <v>5459.3</v>
+        <v>5918.3</v>
       </c>
       <c r="J5" s="12">
-        <v>1109.0999999999999</v>
+        <v>3212.8</v>
       </c>
       <c r="K5" s="12">
-        <v>7109.6</v>
+        <v>6614.2</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="N5" s="12">
-        <v>1109.0999999999999</v>
+        <v>3212.8</v>
       </c>
       <c r="O5" s="12">
-        <v>7109.6</v>
+        <v>6614.2</v>
       </c>
       <c r="P5" s="12">
-        <v>76536.2</v>
+        <v>79338.7</v>
       </c>
       <c r="Q5" s="12">
-        <v>82536.7</v>
+        <v>82740.100000000006</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1527,31 +1527,31 @@
         <v>25</v>
       </c>
       <c r="C7" s="15">
-        <v>74823.600000000006</v>
+        <v>75427.100000000006</v>
       </c>
       <c r="D7" s="16">
-        <v>603.5</v>
+        <v>698.8</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
       </c>
       <c r="F7" s="15">
-        <v>75427.100000000006</v>
+        <v>76125.899999999994</v>
       </c>
       <c r="G7" s="16">
-        <v>603.5</v>
+        <v>698.8</v>
       </c>
       <c r="H7" s="16">
-        <v>2853.7</v>
+        <v>3552.5</v>
       </c>
       <c r="I7" s="16">
-        <v>5459.3</v>
+        <v>5918.3</v>
       </c>
       <c r="J7" s="15">
-        <v>1138.4000000000001</v>
+        <v>3242.1</v>
       </c>
       <c r="K7" s="15">
-        <v>7138.9</v>
+        <v>6643.5</v>
       </c>
       <c r="L7" s="15">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="N7" s="15">
-        <v>1138.4000000000001</v>
+        <v>3242.1</v>
       </c>
       <c r="O7" s="15">
-        <v>7138.9</v>
+        <v>6643.5</v>
       </c>
       <c r="P7" s="15">
-        <v>76565.5</v>
+        <v>79368</v>
       </c>
       <c r="Q7" s="15">
-        <v>82566</v>
+        <v>82769.399999999994</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1580,31 +1580,31 @@
         <v>25</v>
       </c>
       <c r="C8" s="12">
-        <v>15595.6</v>
+        <v>16150.7</v>
       </c>
       <c r="D8" s="13">
-        <v>555.1</v>
+        <v>486.2</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="12">
-        <v>16150.7</v>
+        <v>16636.900000000001</v>
       </c>
       <c r="G8" s="13">
-        <v>555.1</v>
+        <v>486.2</v>
       </c>
       <c r="H8" s="13">
-        <v>4245.3</v>
+        <v>4731.5</v>
       </c>
       <c r="I8" s="13">
-        <v>5994</v>
+        <v>6158.2</v>
       </c>
       <c r="J8" s="12">
-        <v>1408.7</v>
+        <v>2566.5</v>
       </c>
       <c r="K8" s="12">
-        <v>5422.6</v>
+        <v>4915.8999999999996</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="12">
-        <v>1408.7</v>
+        <v>2566.5</v>
       </c>
       <c r="O8" s="12">
-        <v>5422.6</v>
+        <v>4915.8999999999996</v>
       </c>
       <c r="P8" s="12">
-        <v>17559.400000000001</v>
+        <v>19203.400000000001</v>
       </c>
       <c r="Q8" s="12">
-        <v>21573.3</v>
+        <v>21552.799999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
@@ -1739,31 +1739,31 @@
         <v>25</v>
       </c>
       <c r="C11" s="15">
-        <v>17353.5</v>
+        <v>17908.599999999999</v>
       </c>
       <c r="D11" s="16">
-        <v>555.1</v>
+        <v>486.2</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
       </c>
       <c r="F11" s="15">
-        <v>17908.599999999999</v>
+        <v>18394.8</v>
       </c>
       <c r="G11" s="16">
-        <v>555.1</v>
+        <v>486.2</v>
       </c>
       <c r="H11" s="16">
-        <v>4245.3</v>
+        <v>4731.5</v>
       </c>
       <c r="I11" s="16">
-        <v>6060.2</v>
+        <v>6114.4</v>
       </c>
       <c r="J11" s="15">
-        <v>1408.7</v>
+        <v>2566.5</v>
       </c>
       <c r="K11" s="15">
-        <v>5422.6</v>
+        <v>4915.8999999999996</v>
       </c>
       <c r="L11" s="15">
         <v>0</v>
@@ -1772,16 +1772,16 @@
         <v>0</v>
       </c>
       <c r="N11" s="15">
-        <v>1408.7</v>
+        <v>2566.5</v>
       </c>
       <c r="O11" s="15">
-        <v>5422.6</v>
+        <v>4915.8999999999996</v>
       </c>
       <c r="P11" s="15">
-        <v>19317.3</v>
+        <v>20961.3</v>
       </c>
       <c r="Q11" s="15">
-        <v>23331.200000000001</v>
+        <v>23310.7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1792,31 +1792,31 @@
         <v>25</v>
       </c>
       <c r="C12" s="15">
-        <v>79942.8</v>
+        <v>79949.3</v>
       </c>
       <c r="D12" s="16">
-        <v>6.5</v>
+        <v>36</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="15">
-        <v>79949.3</v>
+        <v>79985.3</v>
       </c>
       <c r="G12" s="16">
-        <v>6.5</v>
+        <v>36</v>
       </c>
       <c r="H12" s="16">
-        <v>285.10000000000002</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="I12" s="16">
-        <v>293.10000000000002</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="J12" s="15">
         <v>2</v>
       </c>
       <c r="K12" s="15">
-        <v>315.8</v>
+        <v>247.8</v>
       </c>
       <c r="L12" s="15">
         <v>0</v>
@@ -1828,13 +1828,13 @@
         <v>2</v>
       </c>
       <c r="O12" s="15">
-        <v>206.6</v>
+        <v>138.6</v>
       </c>
       <c r="P12" s="15">
-        <v>79951.3</v>
+        <v>79987.3</v>
       </c>
       <c r="Q12" s="15">
-        <v>80155.899999999994</v>
+        <v>80123.899999999994</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1845,10 +1845,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="12">
-        <v>8936.2999999999993</v>
+        <v>8943.2999999999993</v>
       </c>
       <c r="D13" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1857,19 +1857,19 @@
         <v>8943.2999999999993</v>
       </c>
       <c r="G13" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H13" s="13">
         <v>-25.6</v>
       </c>
       <c r="I13" s="13">
-        <v>-101.1</v>
+        <v>-46.6</v>
       </c>
       <c r="J13" s="12">
         <v>62</v>
       </c>
       <c r="K13" s="12">
-        <v>105.5</v>
+        <v>105</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -1881,13 +1881,13 @@
         <v>62</v>
       </c>
       <c r="O13" s="12">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="P13" s="12">
         <v>9005.2999999999993</v>
       </c>
       <c r="Q13" s="12">
-        <v>9038.2999999999993</v>
+        <v>9037.7999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="12">
-        <v>2108.6</v>
+        <v>2110.4</v>
       </c>
       <c r="D14" s="13">
         <v>1.8</v>
@@ -1907,22 +1907,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <v>2110.4</v>
+        <v>2112.1999999999998</v>
       </c>
       <c r="G14" s="13">
         <v>1.8</v>
       </c>
       <c r="H14" s="13">
-        <v>33.5</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="I14" s="13">
-        <v>22.6</v>
+        <v>27.3</v>
       </c>
       <c r="J14" s="12">
-        <v>15.6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="12">
-        <v>22.1</v>
+        <v>20.3</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>10.4</v>
       </c>
       <c r="N14" s="12">
-        <v>15.6</v>
+        <v>4</v>
       </c>
       <c r="O14" s="12">
-        <v>11.7</v>
+        <v>9.9</v>
       </c>
       <c r="P14" s="12">
-        <v>2126</v>
+        <v>2116.1999999999998</v>
       </c>
       <c r="Q14" s="12">
         <v>2122.1</v>
@@ -2007,43 +2007,43 @@
         <v>808.7</v>
       </c>
       <c r="D16" s="13">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
       </c>
       <c r="F16" s="12">
-        <v>808.7</v>
+        <v>813.9</v>
       </c>
       <c r="G16" s="13">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H16" s="13">
-        <v>9.3000000000000007</v>
+        <v>14.5</v>
       </c>
       <c r="I16" s="13">
-        <v>9.3000000000000007</v>
+        <v>14.5</v>
       </c>
       <c r="J16" s="12">
-        <v>15.2</v>
+        <v>4</v>
       </c>
       <c r="K16" s="12">
-        <v>23.2</v>
+        <v>18</v>
       </c>
       <c r="L16" s="12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M16" s="12">
         <v>0.8</v>
       </c>
       <c r="N16" s="12">
-        <v>15.2</v>
+        <v>3.2</v>
       </c>
       <c r="O16" s="12">
-        <v>22.4</v>
+        <v>17.2</v>
       </c>
       <c r="P16" s="12">
-        <v>823.9</v>
+        <v>817.1</v>
       </c>
       <c r="Q16" s="12">
         <v>831.1</v>
@@ -2057,49 +2057,49 @@
         <v>25</v>
       </c>
       <c r="C17" s="15">
-        <v>14100.7</v>
+        <v>14109.5</v>
       </c>
       <c r="D17" s="16">
-        <v>8.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
       </c>
       <c r="F17" s="15">
-        <v>14109.5</v>
+        <v>14116.5</v>
       </c>
       <c r="G17" s="16">
-        <v>8.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="H17" s="16">
-        <v>16.100000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="I17" s="16">
-        <v>-70.3</v>
+        <v>-5.9</v>
       </c>
       <c r="J17" s="15">
-        <v>92.8</v>
+        <v>70</v>
       </c>
       <c r="K17" s="15">
-        <v>150.80000000000001</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M17" s="15">
         <v>23.7</v>
       </c>
       <c r="N17" s="15">
-        <v>92.8</v>
+        <v>69.2</v>
       </c>
       <c r="O17" s="15">
-        <v>127.1</v>
+        <v>119.6</v>
       </c>
       <c r="P17" s="15">
-        <v>14202.3</v>
+        <v>14185.7</v>
       </c>
       <c r="Q17" s="15">
-        <v>14236.6</v>
+        <v>14236.1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M18" s="15">
         <v>30</v>
       </c>
       <c r="N18" s="15">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="O18" s="15">
         <v>-30</v>
       </c>
       <c r="P18" s="15">
-        <v>2541.5</v>
+        <v>2511.5</v>
       </c>
       <c r="Q18" s="15">
         <v>2511.5</v>
@@ -2163,49 +2163,49 @@
         <v>25</v>
       </c>
       <c r="C19" s="18">
-        <v>188762.1</v>
+        <v>189936</v>
       </c>
       <c r="D19" s="19">
-        <v>1173.9000000000001</v>
+        <v>1228</v>
       </c>
       <c r="E19" s="19">
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <v>189936</v>
+        <v>191164</v>
       </c>
       <c r="G19" s="19">
-        <v>1173.9000000000001</v>
+        <v>1228</v>
       </c>
       <c r="H19" s="19">
-        <v>7400.2</v>
+        <v>8628.2000000000007</v>
       </c>
       <c r="I19" s="19">
-        <v>11742.3</v>
+        <v>12353.9</v>
       </c>
       <c r="J19" s="18">
-        <v>2641.9</v>
+        <v>5880.6</v>
       </c>
       <c r="K19" s="18">
-        <v>13028.1</v>
+        <v>11950.5</v>
       </c>
       <c r="L19" s="18">
-        <v>0</v>
+        <v>30.8</v>
       </c>
       <c r="M19" s="18">
         <v>162.9</v>
       </c>
       <c r="N19" s="18">
-        <v>2641.9</v>
+        <v>5849.8</v>
       </c>
       <c r="O19" s="18">
-        <v>12865.2</v>
+        <v>11787.6</v>
       </c>
       <c r="P19" s="18">
-        <v>192577.9</v>
+        <v>197013.8</v>
       </c>
       <c r="Q19" s="18">
-        <v>202801.2</v>
+        <v>202951.6</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2216,31 +2216,31 @@
         <v>25</v>
       </c>
       <c r="C20" s="12">
-        <v>239394.5</v>
+        <v>239405</v>
       </c>
       <c r="D20" s="13">
-        <v>10.5</v>
+        <v>44.6</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
       </c>
       <c r="F20" s="12">
-        <v>239405</v>
+        <v>239449.60000000001</v>
       </c>
       <c r="G20" s="13">
-        <v>10.5</v>
+        <v>44.6</v>
       </c>
       <c r="H20" s="13">
-        <v>5386.6</v>
+        <v>5431.2</v>
       </c>
       <c r="I20" s="13">
-        <v>5868.9</v>
+        <v>5431.6</v>
       </c>
       <c r="J20" s="12">
-        <v>44.6</v>
+        <v>80</v>
       </c>
       <c r="K20" s="12">
-        <v>9994</v>
+        <v>10002.4</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
@@ -2249,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="12">
-        <v>44.6</v>
+        <v>80</v>
       </c>
       <c r="O20" s="12">
-        <v>9994</v>
+        <v>10002.4</v>
       </c>
       <c r="P20" s="12">
-        <v>239449.60000000001</v>
+        <v>239529.60000000001</v>
       </c>
       <c r="Q20" s="12">
-        <v>249399</v>
+        <v>249452</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2272,46 +2272,46 @@
         <v>124790.2</v>
       </c>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
       </c>
       <c r="F21" s="12">
-        <v>124790.2</v>
+        <v>125081.2</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="H21" s="13">
-        <v>1204.7</v>
+        <v>1495.7</v>
       </c>
       <c r="I21" s="13">
-        <v>1254.2</v>
+        <v>1475.6</v>
       </c>
       <c r="J21" s="12">
-        <v>654.20000000000005</v>
+        <v>69.2</v>
       </c>
       <c r="K21" s="12">
-        <v>1162.5</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="L21" s="12">
-        <v>0</v>
+        <v>59.3</v>
       </c>
       <c r="M21" s="12">
         <v>91.3</v>
       </c>
       <c r="N21" s="12">
-        <v>654.20000000000005</v>
+        <v>9.9</v>
       </c>
       <c r="O21" s="12">
-        <v>1071.2</v>
+        <v>524.9</v>
       </c>
       <c r="P21" s="12">
-        <v>125444.4</v>
+        <v>125091.1</v>
       </c>
       <c r="Q21" s="12">
-        <v>125861.4</v>
+        <v>125606.1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2325,22 +2325,22 @@
         <v>79357.600000000006</v>
       </c>
       <c r="D22" s="13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22" s="12">
-        <v>79357.600000000006</v>
+        <v>79398.600000000006</v>
       </c>
       <c r="G22" s="13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H22" s="13">
-        <v>1326.4</v>
+        <v>1367.4</v>
       </c>
       <c r="I22" s="13">
-        <v>113.4</v>
+        <v>343.4</v>
       </c>
       <c r="J22" s="12">
         <v>0</v>
@@ -2349,22 +2349,22 @@
         <v>1.2</v>
       </c>
       <c r="L22" s="12">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="M22" s="12">
         <v>453.5</v>
       </c>
       <c r="N22" s="12">
-        <v>0</v>
+        <v>-305</v>
       </c>
       <c r="O22" s="12">
         <v>-452.3</v>
       </c>
       <c r="P22" s="12">
-        <v>79357.600000000006</v>
+        <v>79093.600000000006</v>
       </c>
       <c r="Q22" s="12">
-        <v>78905.3</v>
+        <v>78946.3</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2375,28 +2375,28 @@
         <v>25</v>
       </c>
       <c r="C23" s="12">
-        <v>3810.3</v>
+        <v>3807</v>
       </c>
       <c r="D23" s="13">
         <v>0</v>
       </c>
       <c r="E23" s="13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F23" s="12">
         <v>3807</v>
       </c>
       <c r="G23" s="13">
-        <v>-3.3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="13">
         <v>231.3</v>
       </c>
       <c r="I23" s="13">
-        <v>226.2</v>
+        <v>231</v>
       </c>
       <c r="J23" s="12">
-        <v>0</v>
+        <v>224.6</v>
       </c>
       <c r="K23" s="12">
         <v>502.2</v>
@@ -2408,13 +2408,13 @@
         <v>0.9</v>
       </c>
       <c r="N23" s="12">
-        <v>-0.9</v>
+        <v>223.7</v>
       </c>
       <c r="O23" s="12">
         <v>501.3</v>
       </c>
       <c r="P23" s="12">
-        <v>3806.1</v>
+        <v>4030.7</v>
       </c>
       <c r="Q23" s="12">
         <v>4308.3</v>
@@ -2481,10 +2481,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="12">
-        <v>107.1</v>
+        <v>112.7</v>
       </c>
       <c r="D25" s="13">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2493,16 +2493,16 @@
         <v>112.7</v>
       </c>
       <c r="G25" s="13">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H25" s="13">
         <v>8.1</v>
       </c>
       <c r="I25" s="13">
-        <v>13.3</v>
+        <v>9.5</v>
       </c>
       <c r="J25" s="12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K25" s="12">
         <v>1.4</v>
@@ -2514,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O25" s="12">
         <v>1.4</v>
       </c>
       <c r="P25" s="12">
-        <v>112.7</v>
+        <v>114.1</v>
       </c>
       <c r="Q25" s="12">
         <v>114.1</v>
@@ -2534,49 +2534,49 @@
         <v>25</v>
       </c>
       <c r="C26" s="15">
-        <v>447569.7</v>
+        <v>447582.5</v>
       </c>
       <c r="D26" s="16">
-        <v>16.100000000000001</v>
+        <v>376.6</v>
       </c>
       <c r="E26" s="16">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>447582.5</v>
+        <v>447959.1</v>
       </c>
       <c r="G26" s="16">
-        <v>12.8</v>
+        <v>376.6</v>
       </c>
       <c r="H26" s="16">
-        <v>8157.1</v>
+        <v>8533.7000000000007</v>
       </c>
       <c r="I26" s="16">
-        <v>7476</v>
+        <v>7491.1</v>
       </c>
       <c r="J26" s="15">
-        <v>698.8</v>
+        <v>375.2</v>
       </c>
       <c r="K26" s="15">
-        <v>11661.3</v>
+        <v>11123.4</v>
       </c>
       <c r="L26" s="15">
-        <v>0.9</v>
+        <v>365.2</v>
       </c>
       <c r="M26" s="15">
         <v>545.70000000000005</v>
       </c>
       <c r="N26" s="15">
-        <v>697.9</v>
+        <v>10</v>
       </c>
       <c r="O26" s="15">
-        <v>11115.6</v>
+        <v>10577.7</v>
       </c>
       <c r="P26" s="15">
-        <v>448280.4</v>
+        <v>447969.1</v>
       </c>
       <c r="Q26" s="15">
-        <v>458698.1</v>
+        <v>458536.8</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2593,43 +2593,43 @@
         <v>0</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12">
-        <v>270827.90000000002</v>
+        <v>270776.90000000002</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="H27" s="13">
-        <v>-8077</v>
+        <v>-8128</v>
       </c>
       <c r="I27" s="13">
-        <v>-10699.3</v>
+        <v>-9662.2999999999993</v>
       </c>
       <c r="J27" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K27" s="12">
         <v>11</v>
       </c>
       <c r="L27" s="12">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="M27" s="12">
-        <v>3192.1</v>
+        <v>3432.1</v>
       </c>
       <c r="N27" s="12">
-        <v>-10</v>
+        <v>-639</v>
       </c>
       <c r="O27" s="12">
-        <v>-3181.1</v>
+        <v>-3421.1</v>
       </c>
       <c r="P27" s="12">
-        <v>270817.90000000002</v>
+        <v>270137.90000000002</v>
       </c>
       <c r="Q27" s="12">
-        <v>267646.8</v>
+        <v>267355.8</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2699,43 +2699,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="16">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F29" s="15">
-        <v>271642.90000000002</v>
+        <v>271591.90000000002</v>
       </c>
       <c r="G29" s="16">
-        <v>0</v>
+        <v>-51</v>
       </c>
       <c r="H29" s="16">
-        <v>-8077</v>
+        <v>-8128</v>
       </c>
       <c r="I29" s="16">
-        <v>-10699.3</v>
+        <v>-9662.2999999999993</v>
       </c>
       <c r="J29" s="15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K29" s="15">
         <v>11</v>
       </c>
       <c r="L29" s="15">
-        <v>10</v>
+        <v>650</v>
       </c>
       <c r="M29" s="15">
-        <v>3192.1</v>
+        <v>3432.1</v>
       </c>
       <c r="N29" s="15">
-        <v>-10</v>
+        <v>-639</v>
       </c>
       <c r="O29" s="15">
-        <v>-3181.1</v>
+        <v>-3421.1</v>
       </c>
       <c r="P29" s="15">
-        <v>271632.90000000002</v>
+        <v>270952.90000000002</v>
       </c>
       <c r="Q29" s="15">
-        <v>268461.8</v>
+        <v>268170.8</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2799,31 +2799,31 @@
         <v>25</v>
       </c>
       <c r="C31" s="15">
-        <v>34868.800000000003</v>
+        <v>34852.800000000003</v>
       </c>
       <c r="D31" s="16">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="E31" s="16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F31" s="15">
-        <v>34852.800000000003</v>
+        <v>34875.599999999999</v>
       </c>
       <c r="G31" s="16">
-        <v>-16</v>
+        <v>22.8</v>
       </c>
       <c r="H31" s="16">
-        <v>-233.2</v>
+        <v>-210.4</v>
       </c>
       <c r="I31" s="16">
-        <v>-334.8</v>
+        <v>-225.4</v>
       </c>
       <c r="J31" s="15">
-        <v>25</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K31" s="15">
-        <v>27.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L31" s="15">
         <v>0.7</v>
@@ -2832,16 +2832,16 @@
         <v>605</v>
       </c>
       <c r="N31" s="15">
-        <v>24.3</v>
+        <v>1.6</v>
       </c>
       <c r="O31" s="15">
-        <v>-577.70000000000005</v>
+        <v>-602.70000000000005</v>
       </c>
       <c r="P31" s="15">
-        <v>34877.1</v>
+        <v>34877.199999999997</v>
       </c>
       <c r="Q31" s="15">
-        <v>34275.1</v>
+        <v>34272.9</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2905,49 +2905,49 @@
         <v>25</v>
       </c>
       <c r="C33" s="18">
-        <v>758118.9</v>
+        <v>758115.7</v>
       </c>
       <c r="D33" s="19">
-        <v>16.100000000000001</v>
+        <v>399.4</v>
       </c>
       <c r="E33" s="19">
-        <v>19.3</v>
+        <v>51</v>
       </c>
       <c r="F33" s="18">
-        <v>758115.7</v>
+        <v>758464.1</v>
       </c>
       <c r="G33" s="19">
-        <v>-3.2</v>
+        <v>348.4</v>
       </c>
       <c r="H33" s="19">
-        <v>-360.3</v>
+        <v>-11.9</v>
       </c>
       <c r="I33" s="19">
-        <v>-3795.3</v>
+        <v>-2633.8</v>
       </c>
       <c r="J33" s="18">
-        <v>723.8</v>
+        <v>388.5</v>
       </c>
       <c r="K33" s="18">
-        <v>11699.6</v>
+        <v>11136.7</v>
       </c>
       <c r="L33" s="18">
-        <v>11.6</v>
+        <v>1015.9</v>
       </c>
       <c r="M33" s="18">
-        <v>4342.8</v>
+        <v>4582.8</v>
       </c>
       <c r="N33" s="18">
-        <v>712.2</v>
+        <v>-627.4</v>
       </c>
       <c r="O33" s="18">
-        <v>7356.8</v>
+        <v>6553.9</v>
       </c>
       <c r="P33" s="18">
-        <v>758827.9</v>
+        <v>757836.7</v>
       </c>
       <c r="Q33" s="18">
-        <v>765472.5</v>
+        <v>765018</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -3064,10 +3064,10 @@
         <v>25</v>
       </c>
       <c r="C36" s="15">
-        <v>331.2</v>
+        <v>369.2</v>
       </c>
       <c r="D36" s="16">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>369.2</v>
       </c>
       <c r="G36" s="16">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H36" s="16">
         <v>77</v>
       </c>
       <c r="I36" s="16">
-        <v>92.5</v>
+        <v>90.5</v>
       </c>
       <c r="J36" s="15">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="K36" s="15">
         <v>58.6</v>
@@ -3097,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="15">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="O36" s="15">
         <v>58.6</v>
       </c>
       <c r="P36" s="15">
-        <v>369.2</v>
+        <v>395.4</v>
       </c>
       <c r="Q36" s="15">
         <v>427.8</v>
@@ -3117,10 +3117,10 @@
         <v>25</v>
       </c>
       <c r="C37" s="18">
-        <v>23043.3</v>
+        <v>23081.3</v>
       </c>
       <c r="D37" s="19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E37" s="19">
         <v>0</v>
@@ -3129,16 +3129,16 @@
         <v>23081.3</v>
       </c>
       <c r="G37" s="19">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H37" s="19">
         <v>172</v>
       </c>
       <c r="I37" s="19">
-        <v>187.5</v>
+        <v>185.5</v>
       </c>
       <c r="J37" s="18">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="K37" s="18">
         <v>172.6</v>
@@ -3150,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="18">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="O37" s="18">
         <v>172.6</v>
       </c>
       <c r="P37" s="18">
-        <v>23081.3</v>
+        <v>23107.5</v>
       </c>
       <c r="Q37" s="18">
         <v>23253.9</v>
@@ -3170,19 +3170,19 @@
         <v>25</v>
       </c>
       <c r="C38" s="18">
-        <v>99794</v>
+        <v>99315.9</v>
       </c>
       <c r="D38" s="19">
         <v>0</v>
       </c>
       <c r="E38" s="19">
-        <v>478.1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="18">
         <v>99315.9</v>
       </c>
       <c r="G38" s="19">
-        <v>-478.1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="19">
         <v>643.9</v>
@@ -3200,19 +3200,19 @@
         <v>0</v>
       </c>
       <c r="M38" s="18">
-        <v>1901.8</v>
+        <v>836.8</v>
       </c>
       <c r="N38" s="18">
         <v>0</v>
       </c>
       <c r="O38" s="18">
-        <v>-1881.8</v>
+        <v>-816.8</v>
       </c>
       <c r="P38" s="18">
         <v>99315.9</v>
       </c>
       <c r="Q38" s="18">
-        <v>97434.1</v>
+        <v>98499.1</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -3226,10 +3226,10 @@
         <v>1484.8</v>
       </c>
       <c r="D39" s="19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E39" s="19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F39" s="18">
         <v>1484.8</v>
@@ -3276,49 +3276,49 @@
         <v>61</v>
       </c>
       <c r="C40" s="21">
-        <v>1071203.1000000001</v>
+        <v>1071933.7</v>
       </c>
       <c r="D40" s="22">
-        <v>1228</v>
+        <v>1642.4</v>
       </c>
       <c r="E40" s="22">
-        <v>497.4</v>
+        <v>66</v>
       </c>
       <c r="F40" s="21">
-        <v>1071933.7</v>
+        <v>1073510.1000000001</v>
       </c>
       <c r="G40" s="22">
-        <v>730.6</v>
+        <v>1576.4</v>
       </c>
       <c r="H40" s="22">
-        <v>7879.2</v>
+        <v>9455.6</v>
       </c>
       <c r="I40" s="22">
-        <v>8801.7999999999993</v>
+        <v>10572.9</v>
       </c>
       <c r="J40" s="21">
-        <v>3365.7</v>
+        <v>6295.3</v>
       </c>
       <c r="K40" s="21">
-        <v>24921.8</v>
+        <v>23281.3</v>
       </c>
       <c r="L40" s="21">
-        <v>11.6</v>
+        <v>1046.7</v>
       </c>
       <c r="M40" s="21">
-        <v>6407.5</v>
+        <v>5582.5</v>
       </c>
       <c r="N40" s="21">
-        <v>3354.1</v>
+        <v>5248.6</v>
       </c>
       <c r="O40" s="21">
-        <v>18514.3</v>
+        <v>17698.8</v>
       </c>
       <c r="P40" s="21">
-        <v>1075287.8</v>
+        <v>1078758.7</v>
       </c>
       <c r="Q40" s="21">
-        <v>1090448</v>
+        <v>1091208.8999999999</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="12">
-        <v>12302.1</v>
+        <v>12575.5</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>62</v>
@@ -3391,16 +3391,16 @@
         <v>62</v>
       </c>
       <c r="F42" s="12">
-        <v>12575.5</v>
+        <v>12863.5</v>
       </c>
       <c r="G42" s="13">
-        <v>273.334</v>
+        <v>288.07799999999997</v>
       </c>
       <c r="H42" s="13">
-        <v>2796.9279999999999</v>
+        <v>3085.0059999999999</v>
       </c>
       <c r="I42" s="13">
-        <v>3387.0369999999998</v>
+        <v>3446.8359999999998</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>62</v>
@@ -3435,7 +3435,7 @@
         <v>66</v>
       </c>
       <c r="C43" s="15">
-        <v>27897.7</v>
+        <v>28726.2</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>62</v>
@@ -3444,16 +3444,16 @@
         <v>62</v>
       </c>
       <c r="F43" s="15">
-        <v>28726.2</v>
+        <v>29500.400000000001</v>
       </c>
       <c r="G43" s="16">
-        <v>828.43399999999997</v>
+        <v>774.27800000000002</v>
       </c>
       <c r="H43" s="16">
-        <v>7042.2280000000001</v>
+        <v>7816.5060000000003</v>
       </c>
       <c r="I43" s="16">
-        <v>9381.0370000000003</v>
+        <v>9605.0360000000001</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>62</v>
@@ -3488,7 +3488,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="18">
-        <v>29655.599999999999</v>
+        <v>30484.1</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>62</v>
@@ -3497,16 +3497,16 @@
         <v>62</v>
       </c>
       <c r="F44" s="18">
-        <v>30484.1</v>
+        <v>31258.3</v>
       </c>
       <c r="G44" s="19">
-        <v>828.43399999999997</v>
+        <v>774.27800000000002</v>
       </c>
       <c r="H44" s="19">
-        <v>7042.2280000000001</v>
+        <v>7816.5060000000003</v>
       </c>
       <c r="I44" s="19">
-        <v>9447.2369999999992</v>
+        <v>9561.2360000000008</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>62</v>
